--- a/docs/Data base.xlsx
+++ b/docs/Data base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="431" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="310" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Database Toi Yeu Hang Viet" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>Thông tin Doanh nghiệp</t>
   </si>
@@ -111,7 +111,7 @@
     <t>Thuộc Doanh Nghiệp</t>
   </si>
   <si>
-    <t> --&gt; Anh không biết thế nào cho tiện em, gán Danh sách Doanh Nghiệp vào từng Mặt hàng hay Gán các mặt hàng vào từng Doanh Nghiệp</t>
+    <t>--&gt; Anh không biết thế nào cho tiện em, gán Danh sách Doanh Nghiệp vào từng Mặt hàng hay Gán các mặt hàng vào từng Doanh Nghiệp</t>
   </si>
   <si>
     <t>COMPANY</t>
@@ -120,6 +120,9 @@
     <t>NOTE</t>
   </si>
   <si>
+    <t>VALIDATE</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -135,9 +138,15 @@
     <t>Von dieu le</t>
   </si>
   <si>
+    <t>number, greater than 0</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
+    <t>only number</t>
+  </si>
+  <si>
     <t>fax</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>not null for default language</t>
   </si>
   <si>
     <t>adress</t>
@@ -309,10 +321,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.56862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.8039215686275"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.8627450980392"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="1">
@@ -507,17 +519,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C65"/>
+  <dimension ref="B2:D65"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B45" activeCellId="0" pane="topLeft" sqref="B45"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D65" activeCellId="0" pane="topLeft" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.56862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.7921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
@@ -527,294 +540,318 @@
       <c r="C2" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
       <c r="B14" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
       <c r="B25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
       <c r="B26" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="B29" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
       <c r="B32" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="B33" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
       <c r="B34" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
       <c r="B35" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
       <c r="B36" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
       <c r="B38" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="39">
       <c r="B39" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
       <c r="B40" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
       <c r="B41" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
       <c r="B42" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
       <c r="B43" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
       <c r="B44" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
       <c r="B45" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="47">
       <c r="B47" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="48">
       <c r="B48" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="49">
       <c r="B49" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="50">
       <c r="B50" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="51">
       <c r="B51" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="53">
       <c r="B53" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="54">
       <c r="B54" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="55">
       <c r="B55" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="56">
       <c r="B56" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="57">
       <c r="B57" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="58">
       <c r="B58" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="59">
       <c r="B59" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
       <c r="B61" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="62">
       <c r="B62" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="63">
       <c r="B63" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="64">
       <c r="B64" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="65">
       <c r="B65" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
